--- a/update_data/data/bank_psbc/refuse2chat/转折语句.xlsx
+++ b/update_data/data/bank_psbc/refuse2chat/转折语句.xlsx
@@ -38,9 +38,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">旺宝也想和你多沟通感情，只是我还有任务在身，你有什么业务问题可以咨询我哦
+    <t xml:space="preserve">储储也想和你多沟通感情，只是我还有任务在身，你有什么业务问题可以咨询我哦
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -404,7 +403,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/update_data/data/bank_psbc/refuse2chat/转折语句.xlsx
+++ b/update_data/data/bank_psbc/refuse2chat/转折语句.xlsx
@@ -38,8 +38,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">储储也想和你多沟通感情，只是我还有任务在身，你有什么业务问题可以咨询我哦
+    <t xml:space="preserve">储储也想和你多聊聊，但是要上班啊，如果你要存取款，车房贷，买理财，咱们可以聊很久。/别让领导发现我总聊天不办事，请咨询我怎么开户，外汇，激活卡，挂失，补办，改密码。/聊几句，储储就想吼两嗓子业务，请咨询我怎么开户，外汇，激活卡，挂失，补办，改密码
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -427,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
